--- a/backend/data/frente_bajo.xlsx
+++ b/backend/data/frente_bajo.xlsx
@@ -397,9 +397,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
   <sheetData>
     <row r="1">
@@ -454,9 +454,269 @@
         <v>28/5/2025, 7:36:45 p.m.</v>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" t="str">
+        <v>Luciano</v>
+      </c>
+      <c r="B3" t="str">
+        <v>Albani</v>
+      </c>
+      <c r="C3" t="str">
+        <v>Mar del Plata</v>
+      </c>
+      <c r="D3" t="str">
+        <v>luchoalbanix1@gmail.com</v>
+      </c>
+      <c r="E3" t="str">
+        <v>+54 2234480301</v>
+      </c>
+      <c r="F3" t="str">
+        <v>rango1</v>
+      </c>
+      <c r="G3" t="str">
+        <v>Inmediatamente</v>
+      </c>
+      <c r="H3" t="str">
+        <v>28/5/2025, 8:16:06 p.m.</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="str">
+        <v>Luciano</v>
+      </c>
+      <c r="B4" t="str">
+        <v>Albani</v>
+      </c>
+      <c r="C4" t="str">
+        <v>Mar del Plata</v>
+      </c>
+      <c r="D4" t="str">
+        <v>luchoalbanix1@gmail.com</v>
+      </c>
+      <c r="E4" t="str">
+        <v>+54 2234480301</v>
+      </c>
+      <c r="F4" t="str">
+        <v>rango1</v>
+      </c>
+      <c r="G4" t="str">
+        <v>Inmediatamente</v>
+      </c>
+      <c r="H4" t="str">
+        <v>28/5/2025, 8:27:18 p.m.</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="str">
+        <v>Luciano</v>
+      </c>
+      <c r="B5" t="str">
+        <v>Albani</v>
+      </c>
+      <c r="C5" t="str">
+        <v>Mar del Plata</v>
+      </c>
+      <c r="D5" t="str">
+        <v>luchoalbanix1@gmail.com</v>
+      </c>
+      <c r="E5" t="str">
+        <v>+54 2234480301</v>
+      </c>
+      <c r="F5" t="str">
+        <v>rango1</v>
+      </c>
+      <c r="G5" t="str">
+        <v>Inmediatamente</v>
+      </c>
+      <c r="H5" t="str">
+        <v>28/5/2025, 8:48:29 p.m.</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="str">
+        <v>Luciano</v>
+      </c>
+      <c r="B6" t="str">
+        <v>Albani</v>
+      </c>
+      <c r="C6" t="str">
+        <v>Mar del Plata</v>
+      </c>
+      <c r="D6" t="str">
+        <v>luchoalbanix1@gmail.com</v>
+      </c>
+      <c r="E6" t="str">
+        <v>+54 2234480301</v>
+      </c>
+      <c r="F6" t="str">
+        <v>rango1</v>
+      </c>
+      <c r="G6" t="str">
+        <v>Inmediatamente</v>
+      </c>
+      <c r="H6" t="str">
+        <v>28/5/2025, 8:49:44 p.m.</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="str">
+        <v>Luciano</v>
+      </c>
+      <c r="B7" t="str">
+        <v>Albani</v>
+      </c>
+      <c r="C7" t="str">
+        <v>Mar del Plata</v>
+      </c>
+      <c r="D7" t="str">
+        <v>luchoalbanix1@gmail.com</v>
+      </c>
+      <c r="E7" t="str">
+        <v>+54 2234480301</v>
+      </c>
+      <c r="F7" t="str">
+        <v>rango1</v>
+      </c>
+      <c r="G7" t="str">
+        <v>Inmediatamente</v>
+      </c>
+      <c r="H7" t="str">
+        <v>28/5/2025, 8:52:44 p.m.</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="str">
+        <v>Luciano</v>
+      </c>
+      <c r="B8" t="str">
+        <v>Albani</v>
+      </c>
+      <c r="C8" t="str">
+        <v>Mar del Plata</v>
+      </c>
+      <c r="D8" t="str">
+        <v>luchoalbanix1@gmail.com</v>
+      </c>
+      <c r="E8" t="str">
+        <v>+54 2234480301</v>
+      </c>
+      <c r="F8" t="str">
+        <v>rango1</v>
+      </c>
+      <c r="G8" t="str">
+        <v>Inmediatamente</v>
+      </c>
+      <c r="H8" t="str">
+        <v>28/5/2025, 9:13:28 p.m.</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="str">
+        <v>Luciano</v>
+      </c>
+      <c r="B9" t="str">
+        <v>Albani</v>
+      </c>
+      <c r="C9" t="str">
+        <v>Mar del Plata</v>
+      </c>
+      <c r="D9" t="str">
+        <v>luchoalbanix1@gmail.com</v>
+      </c>
+      <c r="E9" t="str">
+        <v>+54 2234480301</v>
+      </c>
+      <c r="F9" t="str">
+        <v>rango1</v>
+      </c>
+      <c r="G9" t="str">
+        <v>Inmediatamente</v>
+      </c>
+      <c r="H9" t="str">
+        <v>28/5/2025, 10:16:38 p.m.</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="str">
+        <v>Luciano</v>
+      </c>
+      <c r="B10" t="str">
+        <v>Albani</v>
+      </c>
+      <c r="C10" t="str">
+        <v>Mar del Plata</v>
+      </c>
+      <c r="D10" t="str">
+        <v>luchoalbanix1@gmail.com</v>
+      </c>
+      <c r="E10" t="str">
+        <v>+54 2234480301</v>
+      </c>
+      <c r="F10" t="str">
+        <v>rango1</v>
+      </c>
+      <c r="G10" t="str">
+        <v>Inmediatamente</v>
+      </c>
+      <c r="H10" t="str">
+        <v>28/5/2025, 10:24:49 p.m.</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="str">
+        <v>Luciano</v>
+      </c>
+      <c r="B11" t="str">
+        <v>Albani</v>
+      </c>
+      <c r="C11" t="str">
+        <v>Mar del Plata</v>
+      </c>
+      <c r="D11" t="str">
+        <v>luchoalbanix1@gmail.com</v>
+      </c>
+      <c r="E11" t="str">
+        <v>+54 2234480301</v>
+      </c>
+      <c r="F11" t="str">
+        <v>rango1</v>
+      </c>
+      <c r="G11" t="str">
+        <v>Inmediatamente</v>
+      </c>
+      <c r="H11" t="str">
+        <v>28/5/2025, 10:30:42 p.m.</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="str">
+        <v>Max</v>
+      </c>
+      <c r="B12" t="str">
+        <v>Camesana</v>
+      </c>
+      <c r="C12" t="str">
+        <v>Sierra de los Padres</v>
+      </c>
+      <c r="D12" t="str">
+        <v>maxcamesana@gmail.com</v>
+      </c>
+      <c r="E12" t="str">
+        <v>+54 2236635549</v>
+      </c>
+      <c r="F12" t="str">
+        <v>rango1</v>
+      </c>
+      <c r="G12" t="str">
+        <v>Inmediatamente</v>
+      </c>
+      <c r="H12" t="str">
+        <v>28/5/2025, 10:34:01 p.m.</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:H2"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:H12"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/backend/data/frente_bajo.xlsx
+++ b/backend/data/frente_bajo.xlsx
@@ -397,9 +397,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:H31"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
   <sheetData>
     <row r="1">
@@ -454,9 +454,763 @@
         <v>28/5/2025, 7:36:45 p.m.</v>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" t="str">
+        <v>Luciano</v>
+      </c>
+      <c r="B3" t="str">
+        <v>Albani</v>
+      </c>
+      <c r="C3" t="str">
+        <v>Mar del Plata</v>
+      </c>
+      <c r="D3" t="str">
+        <v>luchoalbanix1@gmail.com</v>
+      </c>
+      <c r="E3" t="str">
+        <v>+54 2234480301</v>
+      </c>
+      <c r="F3" t="str">
+        <v>rango1</v>
+      </c>
+      <c r="G3" t="str">
+        <v>Inmediatamente</v>
+      </c>
+      <c r="H3" t="str">
+        <v>28/5/2025, 8:16:06 p.m.</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="str">
+        <v>Luciano</v>
+      </c>
+      <c r="B4" t="str">
+        <v>Albani</v>
+      </c>
+      <c r="C4" t="str">
+        <v>Mar del Plata</v>
+      </c>
+      <c r="D4" t="str">
+        <v>luchoalbanix1@gmail.com</v>
+      </c>
+      <c r="E4" t="str">
+        <v>+54 2234480301</v>
+      </c>
+      <c r="F4" t="str">
+        <v>rango1</v>
+      </c>
+      <c r="G4" t="str">
+        <v>Inmediatamente</v>
+      </c>
+      <c r="H4" t="str">
+        <v>28/5/2025, 8:27:18 p.m.</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="str">
+        <v>Luciano</v>
+      </c>
+      <c r="B5" t="str">
+        <v>Albani</v>
+      </c>
+      <c r="C5" t="str">
+        <v>Mar del Plata</v>
+      </c>
+      <c r="D5" t="str">
+        <v>luchoalbanix1@gmail.com</v>
+      </c>
+      <c r="E5" t="str">
+        <v>+54 2234480301</v>
+      </c>
+      <c r="F5" t="str">
+        <v>rango1</v>
+      </c>
+      <c r="G5" t="str">
+        <v>Inmediatamente</v>
+      </c>
+      <c r="H5" t="str">
+        <v>28/5/2025, 8:48:29 p.m.</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="str">
+        <v>Luciano</v>
+      </c>
+      <c r="B6" t="str">
+        <v>Albani</v>
+      </c>
+      <c r="C6" t="str">
+        <v>Mar del Plata</v>
+      </c>
+      <c r="D6" t="str">
+        <v>luchoalbanix1@gmail.com</v>
+      </c>
+      <c r="E6" t="str">
+        <v>+54 2234480301</v>
+      </c>
+      <c r="F6" t="str">
+        <v>rango1</v>
+      </c>
+      <c r="G6" t="str">
+        <v>Inmediatamente</v>
+      </c>
+      <c r="H6" t="str">
+        <v>28/5/2025, 8:49:44 p.m.</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="str">
+        <v>Luciano</v>
+      </c>
+      <c r="B7" t="str">
+        <v>Albani</v>
+      </c>
+      <c r="C7" t="str">
+        <v>Mar del Plata</v>
+      </c>
+      <c r="D7" t="str">
+        <v>luchoalbanix1@gmail.com</v>
+      </c>
+      <c r="E7" t="str">
+        <v>+54 2234480301</v>
+      </c>
+      <c r="F7" t="str">
+        <v>rango1</v>
+      </c>
+      <c r="G7" t="str">
+        <v>Inmediatamente</v>
+      </c>
+      <c r="H7" t="str">
+        <v>28/5/2025, 8:52:44 p.m.</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="str">
+        <v>Luciano</v>
+      </c>
+      <c r="B8" t="str">
+        <v>Albani</v>
+      </c>
+      <c r="C8" t="str">
+        <v>Mar del Plata</v>
+      </c>
+      <c r="D8" t="str">
+        <v>luchoalbanix1@gmail.com</v>
+      </c>
+      <c r="E8" t="str">
+        <v>+54 2234480301</v>
+      </c>
+      <c r="F8" t="str">
+        <v>rango1</v>
+      </c>
+      <c r="G8" t="str">
+        <v>Inmediatamente</v>
+      </c>
+      <c r="H8" t="str">
+        <v>28/5/2025, 9:13:28 p.m.</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="str">
+        <v>Luciano</v>
+      </c>
+      <c r="B9" t="str">
+        <v>Albani</v>
+      </c>
+      <c r="C9" t="str">
+        <v>Mar del Plata</v>
+      </c>
+      <c r="D9" t="str">
+        <v>luchoalbanix1@gmail.com</v>
+      </c>
+      <c r="E9" t="str">
+        <v>+54 2234480301</v>
+      </c>
+      <c r="F9" t="str">
+        <v>rango1</v>
+      </c>
+      <c r="G9" t="str">
+        <v>Inmediatamente</v>
+      </c>
+      <c r="H9" t="str">
+        <v>28/5/2025, 10:16:38 p.m.</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="str">
+        <v>Luciano</v>
+      </c>
+      <c r="B10" t="str">
+        <v>Albani</v>
+      </c>
+      <c r="C10" t="str">
+        <v>Mar del Plata</v>
+      </c>
+      <c r="D10" t="str">
+        <v>luchoalbanix1@gmail.com</v>
+      </c>
+      <c r="E10" t="str">
+        <v>+54 2234480301</v>
+      </c>
+      <c r="F10" t="str">
+        <v>rango1</v>
+      </c>
+      <c r="G10" t="str">
+        <v>Inmediatamente</v>
+      </c>
+      <c r="H10" t="str">
+        <v>28/5/2025, 10:24:49 p.m.</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="str">
+        <v>Luciano</v>
+      </c>
+      <c r="B11" t="str">
+        <v>Albani</v>
+      </c>
+      <c r="C11" t="str">
+        <v>Mar del Plata</v>
+      </c>
+      <c r="D11" t="str">
+        <v>luchoalbanix1@gmail.com</v>
+      </c>
+      <c r="E11" t="str">
+        <v>+54 2234480301</v>
+      </c>
+      <c r="F11" t="str">
+        <v>rango1</v>
+      </c>
+      <c r="G11" t="str">
+        <v>Inmediatamente</v>
+      </c>
+      <c r="H11" t="str">
+        <v>28/5/2025, 10:30:42 p.m.</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="str">
+        <v>Max</v>
+      </c>
+      <c r="B12" t="str">
+        <v>Camesana</v>
+      </c>
+      <c r="C12" t="str">
+        <v>Sierra de los Padres</v>
+      </c>
+      <c r="D12" t="str">
+        <v>maxcamesana@gmail.com</v>
+      </c>
+      <c r="E12" t="str">
+        <v>+54 2236635549</v>
+      </c>
+      <c r="F12" t="str">
+        <v>rango1</v>
+      </c>
+      <c r="G12" t="str">
+        <v>Inmediatamente</v>
+      </c>
+      <c r="H12" t="str">
+        <v>28/5/2025, 10:34:01 p.m.</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="str">
+        <v>Luciano</v>
+      </c>
+      <c r="B13" t="str">
+        <v>Albani</v>
+      </c>
+      <c r="C13" t="str">
+        <v>Mar del Plata</v>
+      </c>
+      <c r="D13" t="str">
+        <v>luchoalbanix1@gmail.com</v>
+      </c>
+      <c r="E13" t="str">
+        <v>+54 2234480301</v>
+      </c>
+      <c r="F13" t="str">
+        <v>rango1</v>
+      </c>
+      <c r="G13" t="str">
+        <v>Inmediatamente</v>
+      </c>
+      <c r="H13" t="str">
+        <v>31/5/2025, 1:17:10 a.m.</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="str">
+        <v>Luciano</v>
+      </c>
+      <c r="B14" t="str">
+        <v>Albani</v>
+      </c>
+      <c r="C14" t="str">
+        <v>Mar del Plata</v>
+      </c>
+      <c r="D14" t="str">
+        <v>luchoalbanix1@gmail.com</v>
+      </c>
+      <c r="E14" t="str">
+        <v>+54 2234480301</v>
+      </c>
+      <c r="F14" t="str">
+        <v>rango1</v>
+      </c>
+      <c r="G14" t="str">
+        <v>Inmediatamente</v>
+      </c>
+      <c r="H14" t="str">
+        <v>31/5/2025, 1:20:56 a.m.</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="str">
+        <v>Luciano</v>
+      </c>
+      <c r="B15" t="str">
+        <v>Albani</v>
+      </c>
+      <c r="C15" t="str">
+        <v>Mar del Plata</v>
+      </c>
+      <c r="D15" t="str">
+        <v>luchoalbanix1@gmail.com</v>
+      </c>
+      <c r="E15" t="str">
+        <v>+54 2234480301</v>
+      </c>
+      <c r="F15" t="str">
+        <v>rango1</v>
+      </c>
+      <c r="G15" t="str">
+        <v>Inmediatamente</v>
+      </c>
+      <c r="H15" t="str">
+        <v>31/5/2025, 1:38:01 a.m.</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="str">
+        <v>Luciano</v>
+      </c>
+      <c r="B16" t="str">
+        <v>Albani</v>
+      </c>
+      <c r="C16" t="str">
+        <v>Mar del Plata</v>
+      </c>
+      <c r="D16" t="str">
+        <v>luchoalbanix1@gmail.com</v>
+      </c>
+      <c r="E16" t="str">
+        <v>+54 2234480301</v>
+      </c>
+      <c r="F16" t="str">
+        <v>rango1</v>
+      </c>
+      <c r="G16" t="str">
+        <v>Inmediatamente</v>
+      </c>
+      <c r="H16" t="str">
+        <v>31/5/2025, 1:43:24 a.m.</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="str">
+        <v>Luciano</v>
+      </c>
+      <c r="B17" t="str">
+        <v>Albani</v>
+      </c>
+      <c r="C17" t="str">
+        <v>Mar del Plata</v>
+      </c>
+      <c r="D17" t="str">
+        <v>luchoalbanix1@gmail.com</v>
+      </c>
+      <c r="E17" t="str">
+        <v>+54 2234480301</v>
+      </c>
+      <c r="F17" t="str">
+        <v>rango1</v>
+      </c>
+      <c r="G17" t="str">
+        <v>Inmediatamente</v>
+      </c>
+      <c r="H17" t="str">
+        <v>31/5/2025, 1:49:34 a.m.</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="str">
+        <v>Luciano</v>
+      </c>
+      <c r="B18" t="str">
+        <v>Albani</v>
+      </c>
+      <c r="C18" t="str">
+        <v>Mar del Plata</v>
+      </c>
+      <c r="D18" t="str">
+        <v>luchoalbanix1@gmail.com</v>
+      </c>
+      <c r="E18" t="str">
+        <v>+54 2234480301</v>
+      </c>
+      <c r="F18" t="str">
+        <v>rango1</v>
+      </c>
+      <c r="G18" t="str">
+        <v>Inmediatamente</v>
+      </c>
+      <c r="H18" t="str">
+        <v>31/5/2025, 2:01:07 a.m.</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="str">
+        <v>Luciano</v>
+      </c>
+      <c r="B19" t="str">
+        <v>Albani</v>
+      </c>
+      <c r="C19" t="str">
+        <v>Mar del Plata</v>
+      </c>
+      <c r="D19" t="str">
+        <v>luchoalbanix1@gmail.com</v>
+      </c>
+      <c r="E19" t="str">
+        <v>+54 2234480301</v>
+      </c>
+      <c r="F19" t="str">
+        <v>rango1</v>
+      </c>
+      <c r="G19" t="str">
+        <v>Inmediatamente</v>
+      </c>
+      <c r="H19" t="str">
+        <v>31/5/2025, 2:11:26 a.m.</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="str">
+        <v>Luciano</v>
+      </c>
+      <c r="B20" t="str">
+        <v>Albani</v>
+      </c>
+      <c r="C20" t="str">
+        <v>Mar del Plata</v>
+      </c>
+      <c r="D20" t="str">
+        <v>luchoalbanix1@gmail.com</v>
+      </c>
+      <c r="E20" t="str">
+        <v>+54 2234480301</v>
+      </c>
+      <c r="F20" t="str">
+        <v>rango1</v>
+      </c>
+      <c r="G20" t="str">
+        <v>Inmediatamente</v>
+      </c>
+      <c r="H20" t="str">
+        <v>31/5/2025, 2:16:17 a.m.</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="str">
+        <v>Luciano</v>
+      </c>
+      <c r="B21" t="str">
+        <v>Albani</v>
+      </c>
+      <c r="C21" t="str">
+        <v>Mar del Plata</v>
+      </c>
+      <c r="D21" t="str">
+        <v>luchoalbanix1@gmail.com</v>
+      </c>
+      <c r="E21" t="str">
+        <v>+374 2234480301</v>
+      </c>
+      <c r="F21" t="str">
+        <v>rango1</v>
+      </c>
+      <c r="G21" t="str">
+        <v>Inmediatamente</v>
+      </c>
+      <c r="H21" t="str">
+        <v>31/5/2025, 2:26:58 a.m.</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="str">
+        <v>Luciano</v>
+      </c>
+      <c r="B22" t="str">
+        <v>Albani</v>
+      </c>
+      <c r="C22" t="str">
+        <v>Mar del Plata</v>
+      </c>
+      <c r="D22" t="str">
+        <v>luchoalbanix1@gmail.com</v>
+      </c>
+      <c r="E22" t="str">
+        <v>+54 2234480301</v>
+      </c>
+      <c r="F22" t="str">
+        <v>rango1</v>
+      </c>
+      <c r="G22" t="str">
+        <v>Inmediatamente</v>
+      </c>
+      <c r="H22" t="str">
+        <v>31/5/2025, 2:34:09 a.m.</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="str">
+        <v>Luciano</v>
+      </c>
+      <c r="B23" t="str">
+        <v>Albani</v>
+      </c>
+      <c r="C23" t="str">
+        <v>Mar del Plata</v>
+      </c>
+      <c r="D23" t="str">
+        <v>luchoalbanix1@gmail.com</v>
+      </c>
+      <c r="E23" t="str">
+        <v>+54 2234480301</v>
+      </c>
+      <c r="F23" t="str">
+        <v>rango1</v>
+      </c>
+      <c r="G23" t="str">
+        <v>Inmediatamente</v>
+      </c>
+      <c r="H23" t="str">
+        <v>31/5/2025, 2:34:34 a.m.</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="str">
+        <v>Luciano</v>
+      </c>
+      <c r="B24" t="str">
+        <v>Albani</v>
+      </c>
+      <c r="C24" t="str">
+        <v>Mar del Plata</v>
+      </c>
+      <c r="D24" t="str">
+        <v>luchoalbanix1@gmail.com</v>
+      </c>
+      <c r="E24" t="str">
+        <v>+374 2222</v>
+      </c>
+      <c r="F24" t="str">
+        <v>rango1</v>
+      </c>
+      <c r="G24" t="str">
+        <v>Inmediatamente</v>
+      </c>
+      <c r="H24" t="str">
+        <v>31/5/2025, 2:35:14 a.m.</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="str">
+        <v>Luciano</v>
+      </c>
+      <c r="B25" t="str">
+        <v>Albani</v>
+      </c>
+      <c r="C25" t="str">
+        <v>Mar del Plata</v>
+      </c>
+      <c r="D25" t="str">
+        <v>luchoalbanix1@gmail.com</v>
+      </c>
+      <c r="E25" t="str">
+        <v>+880 111111</v>
+      </c>
+      <c r="F25" t="str">
+        <v>rango1</v>
+      </c>
+      <c r="G25" t="str">
+        <v>Inmediatamente</v>
+      </c>
+      <c r="H25" t="str">
+        <v>31/5/2025, 2:39:47 a.m.</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="str">
+        <v>Luciano</v>
+      </c>
+      <c r="B26" t="str">
+        <v>Albani</v>
+      </c>
+      <c r="C26" t="str">
+        <v>Mar del Plata</v>
+      </c>
+      <c r="D26" t="str">
+        <v>luchoalbanix1@gmail.com</v>
+      </c>
+      <c r="E26" t="str">
+        <v>+244 2234480301</v>
+      </c>
+      <c r="F26" t="str">
+        <v>rango1</v>
+      </c>
+      <c r="G26" t="str">
+        <v>Inmediatamente</v>
+      </c>
+      <c r="H26" t="str">
+        <v>31/5/2025, 2:41:19 a.m.</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="str">
+        <v>Luciano</v>
+      </c>
+      <c r="B27" t="str">
+        <v>Albani</v>
+      </c>
+      <c r="C27" t="str">
+        <v>Mar del Plata</v>
+      </c>
+      <c r="D27" t="str">
+        <v>luchoalbanix1@gmail.com</v>
+      </c>
+      <c r="E27" t="str">
+        <v>+54 11111</v>
+      </c>
+      <c r="F27" t="str">
+        <v>rango1</v>
+      </c>
+      <c r="G27" t="str">
+        <v>Inmediatamente</v>
+      </c>
+      <c r="H27" t="str">
+        <v>31/5/2025, 3:01:10 a.m.</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="str">
+        <v>Luciano</v>
+      </c>
+      <c r="B28" t="str">
+        <v>Albani</v>
+      </c>
+      <c r="C28" t="str">
+        <v>Mar del Plata</v>
+      </c>
+      <c r="D28" t="str">
+        <v>luchoalbanix1@gmail.com</v>
+      </c>
+      <c r="E28" t="str">
+        <v>+61 55555</v>
+      </c>
+      <c r="F28" t="str">
+        <v>rango1</v>
+      </c>
+      <c r="G28" t="str">
+        <v>Inmediatamente</v>
+      </c>
+      <c r="H28" t="str">
+        <v>31/5/2025, 3:10:17 a.m.</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="str">
+        <v>Luciano</v>
+      </c>
+      <c r="B29" t="str">
+        <v>Albani</v>
+      </c>
+      <c r="C29" t="str">
+        <v>Mar del Plata</v>
+      </c>
+      <c r="D29" t="str">
+        <v>luchoalbanix1@gmail.com</v>
+      </c>
+      <c r="E29" t="str">
+        <v>+1242 2234480301</v>
+      </c>
+      <c r="F29" t="str">
+        <v>rango1</v>
+      </c>
+      <c r="G29" t="str">
+        <v>Inmediatamente</v>
+      </c>
+      <c r="H29" t="str">
+        <v>31/5/2025, 3:16:04 a.m.</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="str">
+        <v>Luciano</v>
+      </c>
+      <c r="B30" t="str">
+        <v>Albani</v>
+      </c>
+      <c r="C30" t="str">
+        <v>Mar del Plata</v>
+      </c>
+      <c r="D30" t="str">
+        <v>luchoalbanix1@gmail.com</v>
+      </c>
+      <c r="E30" t="str">
+        <v>+994 45561651</v>
+      </c>
+      <c r="F30" t="str">
+        <v>rango1</v>
+      </c>
+      <c r="G30" t="str">
+        <v>Inmediatamente</v>
+      </c>
+      <c r="H30" t="str">
+        <v>31/5/2025, 3:19:57 a.m.</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="str">
+        <v>Luciano</v>
+      </c>
+      <c r="B31" t="str">
+        <v>Albani</v>
+      </c>
+      <c r="C31" t="str">
+        <v>Mar del Plata</v>
+      </c>
+      <c r="D31" t="str">
+        <v>luchoalbanix1@gmail.com</v>
+      </c>
+      <c r="E31" t="str">
+        <v>+54 2234480301</v>
+      </c>
+      <c r="F31" t="str">
+        <v>rango1</v>
+      </c>
+      <c r="G31" t="str">
+        <v>Inmediatamente</v>
+      </c>
+      <c r="H31" t="str">
+        <v>31/5/2025, 1:36:04 p.m.</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:H2"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:H31"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/backend/data/frente_bajo.xlsx
+++ b/backend/data/frente_bajo.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H31"/>
+  <dimension ref="A1:H33"/>
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
@@ -1208,9 +1208,61 @@
         <v>31/5/2025, 1:36:04 p.m.</v>
       </c>
     </row>
+    <row r="32">
+      <c r="A32" t="str">
+        <v>Luciano</v>
+      </c>
+      <c r="B32" t="str">
+        <v>Albani</v>
+      </c>
+      <c r="C32" t="str">
+        <v>Mar del Plata</v>
+      </c>
+      <c r="D32" t="str">
+        <v>luchoalbanix1@gmail.com</v>
+      </c>
+      <c r="E32" t="str">
+        <v>+54 2234480301</v>
+      </c>
+      <c r="F32" t="str">
+        <v>rango1</v>
+      </c>
+      <c r="G32" t="str">
+        <v>Inmediatamente</v>
+      </c>
+      <c r="H32" t="str">
+        <v>1/6/2025, 10:41:39 p.m.</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="str">
+        <v>Luciano</v>
+      </c>
+      <c r="B33" t="str">
+        <v>Albani</v>
+      </c>
+      <c r="C33" t="str">
+        <v>Mar del Plata</v>
+      </c>
+      <c r="D33" t="str">
+        <v>luchoalbanix1@gmail.com</v>
+      </c>
+      <c r="E33" t="str">
+        <v>+54 465498465156</v>
+      </c>
+      <c r="F33" t="str">
+        <v>rango1</v>
+      </c>
+      <c r="G33" t="str">
+        <v>Inmediatamente</v>
+      </c>
+      <c r="H33" t="str">
+        <v>2/6/2025, 12:32:31 a.m.</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:H31"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:H33"/>
   </ignoredErrors>
 </worksheet>
 </file>